--- a/ipc-webscraping/data/base100/base_combustibles.xlsx
+++ b/ipc-webscraping/data/base100/base_combustibles.xlsx
@@ -58,8 +58,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,132 +440,142 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CATEGORIA</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="2" t="n">
         <v>45960</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="2" t="n">
         <v>45965</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="2" t="n">
         <v>45967</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="2" t="n">
         <v>45968</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>45971</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="2" t="n">
         <v>45972</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="2" t="n">
         <v>45974</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="2" t="n">
         <v>45975</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="2" t="n">
         <v>45976</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="2" t="n">
         <v>45977</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="2" t="n">
         <v>45978</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="2" t="n">
         <v>45979</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>100</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>99.94928541624729</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>99.77363962715138</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>99.78596047580886</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>99.78204679578555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>99.71643623812226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>99.69722530227547</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>99.98227982912108</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>99.81097213039844</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>99.68209389143333</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>99.63833731654535</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>99.61600381103678</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>99.56499613473839</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>99.58215082748734</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>99.58878829021856</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>99.87916450446538</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>99.6169207096323</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>99.6759114653712</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>99.69429038138058</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>99.69200304666644</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>99.72323194275396</v>
       </c>
     </row>

--- a/ipc-webscraping/data/base100/base_combustibles.xlsx
+++ b/ipc-webscraping/data/base100/base_combustibles.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,9 @@
       <c r="V1" s="2" t="n">
         <v>45979</v>
       </c>
+      <c r="W1" s="2" t="n">
+        <v>45980</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -578,6 +581,9 @@
       <c r="V2" t="n">
         <v>99.72323194275396</v>
       </c>
+      <c r="W2" t="n">
+        <v>99.73483649787373</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ipc-webscraping/data/base100/base_combustibles.xlsx
+++ b/ipc-webscraping/data/base100/base_combustibles.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,303 +442,146 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>VALOR</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45980</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>COMBUSTIBLES</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
       <c r="C2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45960</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
         <v>99.94928541624729</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="D2" t="n">
         <v>99.77363962715138</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45962</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="E2" t="n">
         <v>99.78596047580886</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45963</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="F2" t="n">
         <v>99.78204679578555</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="G2" t="n">
         <v>99.71643623812226</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="H2" t="n">
         <v>99.69722530227547</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="I2" t="n">
         <v>99.98227982912108</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="J2" t="n">
         <v>99.81097213039844</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="K2" t="n">
         <v>99.68209389143333</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45969</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="L2" t="n">
         <v>99.63833731654535</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45970</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="M2" t="n">
         <v>99.61600381103678</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="N2" t="n">
         <v>99.56499613473839</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="O2" t="n">
         <v>99.58215082748734</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="P2" t="n">
         <v>99.58878829021856</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="Q2" t="n">
         <v>99.87916450446538</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45975</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="R2" t="n">
         <v>99.6169207096323</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45976</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="S2" t="n">
         <v>99.6759114653712</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45977</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="T2" t="n">
         <v>99.69429038138058</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="U2" t="n">
         <v>99.69200304666644</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45979</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="V2" t="n">
         <v>99.72323194275396</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45980</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="W2" t="n">
         <v>99.73483649787373</v>
       </c>
     </row>

--- a/ipc-webscraping/data/base100/base_combustibles.xlsx
+++ b/ipc-webscraping/data/base100/base_combustibles.xlsx
@@ -63,9 +63,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,146 +440,303 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45960</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99.94928541624729</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99.77363962715138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45962</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99.78596047580886</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45963</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>99.78204679578555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>99.71643623812226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45965</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>99.69722530227547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>99.98227982912108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45967</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>99.81097213039844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45968</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>99.68209389143333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45969</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>99.63833731654535</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45970</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>99.61600381103678</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45971</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>99.56499613473839</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45972</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>99.58215082748734</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45973</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>99.58878829021856</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45974</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>99.87916450446538</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45975</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>99.6169207096323</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45976</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>99.6759114653712</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45977</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>99.69429038138058</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45978</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>99.69200304666644</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45979</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>99.72323194275396</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45980</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>COMBUSTIBLES</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="n">
-        <v>99.94928541624729</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99.77363962715138</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99.78596047580886</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99.78204679578555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99.71643623812226</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99.69722530227547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99.98227982912108</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99.81097213039844</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99.68209389143333</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99.63833731654535</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99.61600381103678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99.56499613473839</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99.58215082748734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99.58878829021856</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>99.87916450446538</v>
-      </c>
-      <c r="R2" t="n">
-        <v>99.6169207096323</v>
-      </c>
-      <c r="S2" t="n">
-        <v>99.6759114653712</v>
-      </c>
-      <c r="T2" t="n">
-        <v>99.69429038138058</v>
-      </c>
-      <c r="U2" t="n">
-        <v>99.69200304666644</v>
-      </c>
-      <c r="V2" t="n">
-        <v>99.72323194275396</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>99.73483649787373</v>
       </c>
     </row>

--- a/ipc-webscraping/data/base100/base_combustibles.xlsx
+++ b/ipc-webscraping/data/base100/base_combustibles.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,6 +740,19 @@
         <v>99.73483649787373</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>COMBUSTIBLES</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>99.77239727825265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
